--- a/2025/10/2025-10-25/25_olbg_fixtures.xlsx
+++ b/2025/10/2025-10-25/25_olbg_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chelsea v Sunderland</t>
+          <t>Brentford v Liverpool</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +488,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98/125 Win Tips</t>
+          <t>64/94 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Newcastle v Fulham</t>
+          <t>Man Utd v Brighton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,34 +525,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87/113 Win Tips</t>
+          <t>53/103 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brentford v Liverpool</t>
+          <t>Arsenal v Crystal Palace</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,71 +562,71 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-25T19:00:00.000Z</t>
+          <t>2025-10-26T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57/86 Win Tips</t>
+          <t>36/48 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Man Utd v Brighton</t>
+          <t>Brest v PSG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-25T16:30:00.000Z</t>
+          <t>2025-10-25T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46/90 Win Tips</t>
+          <t>30/34 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arsenal v Crystal Palace</t>
+          <t>Bournemouth v Nottm Forest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,66 +641,66 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35/47 Win Tips</t>
+          <t>28/37 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Middlesbrough v Wrexham</t>
+          <t>Borussia Dortmund v Cologne</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Germany Bundesliga I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30/40 Win Tips</t>
+          <t>26/27 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bournemouth v Nottm Forest</t>
+          <t>Aston Villa v Man City</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28/37 Win Tips</t>
+          <t>22/29 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,330 +725,330 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Borussia Mgladbach v Bayern Munich</t>
+          <t>Athletic Bilbao v Getafe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-25T13:30:00.000Z</t>
+          <t>2025-10-25T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25/28 Win Tips</t>
+          <t>13/15 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aston Villa v Man City</t>
+          <t>Benfica v FC Arouca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Portugal Primeira Liga</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-26T14:00:00.000Z</t>
+          <t>2025-10-25T19:30:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21/28 Win Tips</t>
+          <t>11/11 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Borussia Dortmund v Cologne</t>
+          <t>Napoli v Inter Milan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-25T16:30:00.000Z</t>
+          <t>2025-10-25T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20/21 Win Tips</t>
+          <t>10/17 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brest v PSG</t>
+          <t>Everton v Tottenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-25T15:00:00.000Z</t>
+          <t>2025-10-26T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19/21 Win Tips</t>
+          <t>10/25 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AFC Wimbledon v Burton Albion</t>
+          <t>Wolverhampton v Burnley</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>England League One</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-26T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15/20 Win Tips</t>
+          <t>9/22 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt v St Pauli</t>
+          <t>LASK Linz v Grazer AK</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>LASK Linz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-25T13:30:00.000Z</t>
+          <t>2025-10-25T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14/16 Win Tips</t>
+          <t>8/8 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Augsburg v RB Leipzig</t>
+          <t>KV Mechelen v OH Leuven</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Belgium First Division A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-25T13:30:00.000Z</t>
+          <t>2025-10-25T16:15:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13/16 Win Tips</t>
+          <t>8/9 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Blackburn v Southampton</t>
+          <t>Levski Sofia v Dobrudzha 1919 Dobrich</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13/22 Win Tips</t>
+          <t>7/9 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Viking FK v Bryne</t>
+          <t>Gent v Standard Liege</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Viking FK</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Belgium First Division A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13/13 Win Tips</t>
+          <t>7/7 Win Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,93 +1058,93 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hull v Charlton</t>
+          <t>Trabzonspor v Eyupspor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Turkey Super Lig</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12/23 Win Tips</t>
+          <t>6/6 Win Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bristol City v Birmingham</t>
+          <t>Santa Clara v AVS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Portugal Primeira Liga</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-25T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12/24 Win Tips</t>
+          <t>6/6 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Athletic Bilbao v Getafe</t>
+          <t>Valencia v Villarreal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1154,59 +1154,59 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-25T16:30:00.000Z</t>
+          <t>2025-10-25T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11/13 Win Tips</t>
+          <t>6/11 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Millwall v Leicester</t>
+          <t>Lille v Metz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-25T14:00:00.000Z</t>
+          <t>2025-10-26T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10/15 Win Tips</t>
+          <t>6/7 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.33</t>
         </is>
       </c>
     </row>
